--- a/medicine/Psychotrope/John_Player_Special/John_Player_Special.xlsx
+++ b/medicine/Psychotrope/John_Player_Special/John_Player_Special.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Player Special  ou JPS est une marque de cigarettes internationale d'origine britannique. Le nom de la marque fait référence à la société John Player and Sons, entreprise familiale de Nottingham qui a fusionné en 1901 avec d'autres fabricants britanniques pour donner naissance au groupe Imperial Tobacco.
 Lancée initialement comme une cigarette de luxe avec la référence JPS Internationale, la marque JPS s'est démocratisée au fil des années et propose aujourd'hui une gamme diversifiée, organisée en « Virginian Blend » (goût anglais, sans additifs) et « American Blend ». 
@@ -513,7 +525,9 @@
           <t>Sponsor</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque JPS est également célèbre pour sa longue association avec l'écurie de Formule 1 Lotus. Les Lotus JPS ont remporté le championnat du monde en 1972, 1973 et 1978.
 </t>
